--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6658270000000001</v>
+        <v>0.264496</v>
       </c>
       <c r="H2">
-        <v>1.997481</v>
+        <v>0.793488</v>
       </c>
       <c r="I2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="J2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>7.668483586979334</v>
+        <v>3.046261618741334</v>
       </c>
       <c r="R2">
-        <v>69.016352282814</v>
+        <v>27.416354568672</v>
       </c>
       <c r="S2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
       <c r="T2">
-        <v>0.002619014661824084</v>
+        <v>0.001006353962629067</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,13 +599,13 @@
         <v>245.845932</v>
       </c>
       <c r="H3">
-        <v>737.5377960000001</v>
+        <v>737.537796</v>
       </c>
       <c r="I3">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="J3">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -632,10 +632,10 @@
         <v>25483.18024082642</v>
       </c>
       <c r="S3">
-        <v>0.967029123868222</v>
+        <v>0.9353942133886188</v>
       </c>
       <c r="T3">
-        <v>0.9670291238682222</v>
+        <v>0.9353942133886189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.716294666666666</v>
+        <v>16.71558533333333</v>
       </c>
       <c r="H4">
-        <v>23.148884</v>
+        <v>50.146756</v>
       </c>
       <c r="I4">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="J4">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>88.87035071216621</v>
+        <v>192.5172631560738</v>
       </c>
       <c r="R4">
-        <v>799.8331564094959</v>
+        <v>1732.655368404664</v>
       </c>
       <c r="S4">
-        <v>0.03035186146995387</v>
+        <v>0.06359943264875202</v>
       </c>
       <c r="T4">
-        <v>0.03035186146995388</v>
+        <v>0.06359943264875202</v>
       </c>
     </row>
   </sheetData>
